--- a/DoAn/src/Test/TestCase.xlsx
+++ b/DoAn/src/Test/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOAN\DoAnJava\DoAn\src\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E8F8C72-3784-4825-BFB9-4B687374036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F40673-16C5-4AA8-B9CD-B30181CC802B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="2" r:id="rId1"/>
@@ -4728,16 +4728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>308957</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>46184</xdr:rowOff>
+      <xdr:colOff>453737</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4753,15 +4753,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13982700" y="1493520"/>
-          <a:ext cx="7243157" cy="5342084"/>
+          <a:off x="14127480" y="1333331"/>
+          <a:ext cx="7243157" cy="5098581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,14 +4779,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180640</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>598773</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>140706</xdr:rowOff>
+      <xdr:rowOff>78567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4797,15 +4802,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167640" y="1407460"/>
-          <a:ext cx="11960193" cy="5118806"/>
+          <a:off x="167640" y="1469598"/>
+          <a:ext cx="11960193" cy="4994529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10606,7 +10616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F79A37-EBB6-42C0-AC41-FDA24672F053}">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -12821,7 +12831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C943A6-B568-4704-A981-2F3FE34FFBD7}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
@@ -17798,14 +17808,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L8:W33"/>
+    <mergeCell ref="Y8:AD33"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="A8:I33"/>
-    <mergeCell ref="L8:W33"/>
-    <mergeCell ref="Y8:AD33"/>
   </mergeCells>
   <conditionalFormatting sqref="C40:C47">
     <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
@@ -17861,7 +17871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D92CB43-05BC-48CF-B7CC-02EDFADB736E}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -20160,15 +20170,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101006DE8A98539B4144A97A705AB0C1AF624" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="50ce40fd258a0f6379d23cd0f0657b2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44bb6b4a-7fe9-4f6c-a481-178dfc1c37c6" xmlns:ns4="c5edaca9-2ffd-4286-950f-2a4d8a80ee42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4ecae751927573412fd51fda6793635" ns3:_="" ns4:_="">
     <xsd:import namespace="44bb6b4a-7fe9-4f6c-a481-178dfc1c37c6"/>
@@ -20379,6 +20380,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE1EDBD-94CC-4DEF-A171-E9CF0D994CD2}">
   <ds:schemaRefs>
@@ -20389,14 +20399,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D600A30-7A47-4B4A-8254-51EDAC3D1C63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC03D7DD-58D0-46C2-8428-407C1B32E5FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20413,4 +20415,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D600A30-7A47-4B4A-8254-51EDAC3D1C63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>